--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2DA74-E7E4-48B2-AF07-B77CEA3B57C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245720B2-89A6-4BFC-B81E-347580E14842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="915" windowWidth="19815" windowHeight="14670" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="4500" yWindow="3180" windowWidth="13125" windowHeight="11550" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Pull #</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>12C#14</t>
+  </si>
+  <si>
+    <t>CABLE 1</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,14 +838,33 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245720B2-89A6-4BFC-B81E-347580E14842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D0127-01EF-4F73-A1EA-40A0969F9ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3180" windowWidth="13125" windowHeight="11550" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="31530" yWindow="2670" windowWidth="12150" windowHeight="20835" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D0127-01EF-4F73-A1EA-40A0969F9ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2D79F-04C4-40AF-872B-9006CC412103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31530" yWindow="2670" windowWidth="12150" windowHeight="20835" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Pull #</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>12C#14</t>
-  </si>
-  <si>
-    <t>CABLE 1</t>
   </si>
 </sst>
 </file>
@@ -838,33 +835,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2D79F-04C4-40AF-872B-9006CC412103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2670" windowWidth="12150" windowHeight="20835" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="2625" yWindow="2565" windowWidth="18300" windowHeight="11775" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>Pull #</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,54 +835,149 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98714EE6-8A58-45C3-9085-C1E1A9419AFB}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2565" windowWidth="18300" windowHeight="11775" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Pull #</t>
   </si>
@@ -89,7 +89,7 @@
     <t>3C#6</t>
   </si>
   <si>
-    <t>12C#14</t>
+    <t>10C#14</t>
   </si>
 </sst>
 </file>
@@ -344,6 +344,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,7 +650,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -802,180 +806,6 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1119,7 +949,7 @@
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
     <cfRule type="duplicateValues" dxfId="5" priority="9"/>
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98714EE6-8A58-45C3-9085-C1E1A9419AFB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204D9D92-68E5-48D8-9C9E-DE4EB08A5480}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="15" yWindow="300" windowWidth="13785" windowHeight="15075" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>Pull #</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>10C#14</t>
+  </si>
+  <si>
+    <t>12C#14</t>
   </si>
 </sst>
 </file>
@@ -646,10 +650,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204D9D92-68E5-48D8-9C9E-DE4EB08A5480}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C74DBA-F511-44E9-8B8B-3D3F9A604E2F}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="300" windowWidth="13785" windowHeight="15075" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
   <si>
     <t>Pull #</t>
   </si>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1120,93 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C74DBA-F511-44E9-8B8B-3D3F9A604E2F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48BCF4DE-CDFC-4E52-8D09-E3E598C2D626}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="300" windowWidth="13785" windowHeight="15075" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>Pull #</t>
   </si>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1207,93 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48BCF4DE-CDFC-4E52-8D09-E3E598C2D626}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9282FBC3-F72C-4EB2-A7C9-5FE0A9ADEEF5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="18150" yWindow="270" windowWidth="10335" windowHeight="13965" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t>Pull #</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>12C#14</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -722,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -751,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -780,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -809,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -838,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -867,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9282FBC3-F72C-4EB2-A7C9-5FE0A9ADEEF5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A701A97-B687-43B4-96DE-217ED56063B0}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="270" windowWidth="10335" windowHeight="13965" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>CABLE 1</t>
+  </si>
+  <si>
+    <t>CABLE 2</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +699,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -708,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -722,7 +728,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -737,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -789,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -809,7 +815,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -818,13 +824,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -838,7 +844,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -853,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -867,7 +873,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -896,10 +902,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -925,10 +931,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -954,7 +960,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -969,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1027,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1041,7 +1047,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1114,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1128,7 +1134,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1137,13 +1143,13 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1157,7 +1163,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1166,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1201,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1215,7 +1221,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1259,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1288,15 +1294,73 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A701A97-B687-43B4-96DE-217ED56063B0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACDA192-5324-46DD-ABFF-1286DDDD1AF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="16440" windowHeight="28440" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t>Pull #</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>EXPRESS</t>
-  </si>
-  <si>
-    <t>CABLE 1</t>
-  </si>
-  <si>
-    <t>CABLE 2</t>
   </si>
 </sst>
 </file>
@@ -357,10 +351,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +689,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -714,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -728,7 +718,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -743,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -757,7 +747,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -772,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -786,7 +776,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -795,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -815,7 +805,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -824,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -844,7 +834,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -859,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -873,7 +863,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -902,10 +892,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -931,10 +921,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -960,7 +950,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -975,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -989,7 +979,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1018,7 +1008,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1033,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1047,7 +1037,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1076,7 +1066,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1105,7 +1095,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1120,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1134,22 +1124,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1163,7 +1153,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1172,13 +1162,13 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1192,7 +1182,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1207,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1221,7 +1211,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1250,7 +1240,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1265,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1279,7 +1269,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1294,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1303,64 +1293,6 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACDA192-5324-46DD-ABFF-1286DDDD1AF7}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A55379-E6DF-4130-A6E1-440BD41813B3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="16440" windowHeight="28440" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="390" yWindow="1035" windowWidth="14265" windowHeight="13935" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>CABLE 1</t>
+  </si>
+  <si>
+    <t>CABLE 2</t>
   </si>
 </sst>
 </file>
@@ -351,6 +357,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +699,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -700,28 +710,16 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -729,25 +727,13 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -762,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -776,7 +762,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -785,13 +771,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -805,7 +791,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -814,13 +800,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -834,7 +820,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -849,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -863,7 +849,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -892,10 +878,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -921,10 +907,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -950,7 +936,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -965,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -979,7 +965,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1008,7 +994,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1023,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1037,7 +1023,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1066,7 +1052,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1095,7 +1081,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1110,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1124,7 +1110,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1133,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1153,7 +1139,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1162,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1182,7 +1168,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1197,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1211,7 +1197,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1240,7 +1226,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1255,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1269,7 +1255,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1284,15 +1270,73 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A55379-E6DF-4130-A6E1-440BD41813B3}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745DF761-D274-408F-AF89-01FAC012CF63}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1035" windowWidth="14265" windowHeight="13935" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Pull #</t>
   </si>
@@ -100,18 +100,12 @@
   </si>
   <si>
     <t>CABLE 1</t>
-  </si>
-  <si>
-    <t>CABLE 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,13 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,632 +703,6 @@
       </c>
       <c r="F2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1347,10 +712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A8" sqref="A8:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,25 +730,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1394,10 +759,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1406,13 +771,13 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1">
@@ -1423,10 +788,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1435,13 +800,13 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1">
@@ -1452,10 +817,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1464,13 +829,13 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1">
@@ -1481,10 +846,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1493,13 +858,13 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1">
@@ -1509,135 +874,614 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745DF761-D274-408F-AF89-01FAC012CF63}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAC6DB6-68D2-4182-AD42-9F58268CF44E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -701,8 +701,600 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I28"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,613 +1466,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAC6DB6-68D2-4182-AD42-9F58268CF44E}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE276F95-642B-4D55-8C9F-48EFD8D3FA6A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="21">
   <si>
     <t>Pull #</t>
   </si>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -888,412 +888,6 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
         <v>0</v>
       </c>
     </row>
@@ -1304,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1075,615 @@
       </c>
       <c r="F7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE276F95-642B-4D55-8C9F-48EFD8D3FA6A}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA5E7C3-00F4-40D1-8CC6-DC349BBC5F0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="14070" yWindow="4860" windowWidth="14265" windowHeight="8700" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>CABLE 1</t>
+  </si>
+  <si>
+    <t>2C#4</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +693,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -748,7 +751,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -864,7 +867,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -888,6 +891,64 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA5E7C3-00F4-40D1-8CC6-DC349BBC5F0F}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D3B2CB-4410-44FE-9A3E-6C866A41C393}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="4860" windowWidth="14265" windowHeight="8700" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="6795" yWindow="330" windowWidth="15270" windowHeight="13770" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2.1" sheetId="1" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="28">
   <si>
     <t>Pull #</t>
   </si>
@@ -102,14 +103,32 @@
     <t>CABLE 1</t>
   </si>
   <si>
-    <t>2C#4</t>
+    <t>Distance (If Stationing Not Given)</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>SWITCH 1</t>
+  </si>
+  <si>
+    <t>SWITCH 2</t>
+  </si>
+  <si>
+    <t>Distance (ft) if stationing not given</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,49 +682,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -704,28 +728,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -733,28 +745,16 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -762,194 +762,8 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1768,4 +1582,85 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12C7B15-97EE-4ACF-9422-3E117DBB36D4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\OneDrive - Iovino Enterprises, LLC\Documents 1\Code\Git Files\Cable-Run-Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{D77271E0-B3CA-4731-BF91-1E71098F0430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA5E7C3-00F4-40D1-8CC6-DC349BBC5F0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E707A5B-A663-4732-B633-5360E1550212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="4860" windowWidth="14265" windowHeight="8700" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="7785" yWindow="540" windowWidth="19785" windowHeight="14445" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2.1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2.1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -351,10 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,186 +775,288 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2ABD94-0CA1-4196-B86C-963DF96D16AA}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
   <dimension ref="A1:I32"/>
   <sheetViews>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\OneDrive - Iovino Enterprises, LLC\Documents 1\Code\Git Files\Cable-Run-Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E707A5B-A663-4732-B633-5360E1550212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CD05E-3DB7-46E2-955D-BC68197454D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="540" windowWidth="19785" windowHeight="14445" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16410" windowHeight="13980" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +772,180 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
@@ -782,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2ABD94-0CA1-4196-B86C-963DF96D16AA}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
+      <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1222,238 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7FB1AA-7BB1-4B08-9BD8-6DBBED81645E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B16E0C-C32B-4CC1-B2DF-1F37C4B1C0B3}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="450" windowWidth="18015" windowHeight="14205" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="3990" yWindow="870" windowWidth="19695" windowHeight="14205" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="23">
   <si>
     <t>Pull #</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>500+00</t>
+  </si>
+  <si>
+    <t>600+00</t>
+  </si>
+  <si>
+    <t>STAR QUAD</t>
+  </si>
+  <si>
+    <t>2C#6</t>
   </si>
 </sst>
 </file>
@@ -146,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,13 +461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1117,6 +1136,238 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B789A5F-B82F-415F-89F1-CCDB8A32BC7D}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817BB89A-3316-41E4-BE66-B99D4C74167D}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="960" windowWidth="17040" windowHeight="11430" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="17805" yWindow="825" windowWidth="10410" windowHeight="10560" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -467,14 +467,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817BB89A-3316-41E4-BE66-B99D4C74167D}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C4F916-4FBC-494A-B507-5422E942489E}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="825" windowWidth="10410" windowHeight="10560" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I8" sqref="I8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817BB89A-3316-41E4-BE66-B99D4C74167D}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B5EE61-4976-4776-B01C-5D5648FA923E}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="825" windowWidth="10410" windowHeight="10560" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="10260" yWindow="1275" windowWidth="14715" windowHeight="12825" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
   <si>
     <t>Pull #</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -615,6 +615,666 @@
         <v>20</v>
       </c>
       <c r="F7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
         <v>300</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B5EE61-4976-4776-B01C-5D5648FA923E}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A7AA76-3309-4B9D-89E4-E0A241129266}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1275" windowWidth="14715" windowHeight="12825" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="9450" yWindow="270" windowWidth="19005" windowHeight="14385" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="24">
   <si>
     <t>Pull #</t>
   </si>
@@ -100,6 +101,15 @@
   </si>
   <si>
     <t>RELAY-RM-1</t>
+  </si>
+  <si>
+    <t>CABLE 1</t>
+  </si>
+  <si>
+    <t>1500+00</t>
+  </si>
+  <si>
+    <t>1000+00</t>
   </si>
 </sst>
 </file>
@@ -464,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,779 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
         <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1827,4 +1074,799 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880C181-07DD-4449-8445-7AAA5EB18EDD}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A7AA76-3309-4B9D-89E4-E0A241129266}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474BD5A-4CC6-4209-9ECA-38B7AD7AEB03}"/>
   <bookViews>
     <workbookView xWindow="9450" yWindow="270" windowWidth="19005" windowHeight="14385" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -103,13 +103,7 @@
     <t>RELAY-RM-1</t>
   </si>
   <si>
-    <t>CABLE 1</t>
-  </si>
-  <si>
-    <t>1500+00</t>
-  </si>
-  <si>
-    <t>1000+00</t>
+    <t>3C#9</t>
   </si>
 </sst>
 </file>
@@ -474,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +513,588 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +1108,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A21" sqref="A21:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474BD5A-4CC6-4209-9ECA-38B7AD7AEB03}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8162D46-9035-42DD-BA22-9950FC781F0C}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="270" windowWidth="19005" windowHeight="14385" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="9945" yWindow="1710" windowWidth="14880" windowHeight="12150" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="27">
   <si>
     <t>Pull #</t>
   </si>
@@ -104,6 +105,21 @@
   </si>
   <si>
     <t>3C#9</t>
+  </si>
+  <si>
+    <t>1C#4</t>
+  </si>
+  <si>
+    <t>200+00</t>
+  </si>
+  <si>
+    <t>300+00</t>
+  </si>
+  <si>
+    <t>400+00</t>
+  </si>
+  <si>
+    <t>7C#10</t>
   </si>
 </sst>
 </file>
@@ -468,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,543 +574,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +593,786 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA7D865-4FB5-41B9-A95D-CC32F1496B92}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5F9924-AA7D-49DB-85CC-CC30A665294A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -1648,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880C181-07DD-4449-8445-7AAA5EB18EDD}">
   <dimension ref="A1:F39"/>
   <sheetViews>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817BB89A-3316-41E4-BE66-B99D4C74167D}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF67F13-44BB-4F18-84A3-CA80A8277D80}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="825" windowWidth="10410" windowHeight="10560" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="525" yWindow="375" windowWidth="21330" windowHeight="12705" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -96,10 +96,13 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>SWITCH-HTR-A</t>
-  </si>
-  <si>
-    <t>RELAY-RM-1</t>
+    <t>2C#2</t>
+  </si>
+  <si>
+    <t>100+00</t>
+  </si>
+  <si>
+    <t>200+00</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,119 +506,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>300</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF67F13-44BB-4F18-84A3-CA80A8277D80}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A6653C-386A-4449-8FC8-EC7C71CC0CA7}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="375" windowWidth="21330" windowHeight="12705" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="870" yWindow="1440" windowWidth="15525" windowHeight="11985" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -515,6 +515,23 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A6653C-386A-4449-8FC8-EC7C71CC0CA7}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90DDF401-BC0F-4009-9E22-9131C55120EB}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1440" windowWidth="15525" windowHeight="11985" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="525" yWindow="0" windowWidth="16350" windowHeight="10815" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -515,23 +515,6 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90DDF401-BC0F-4009-9E22-9131C55120EB}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B47D5C-364D-47C1-A471-DEE666165906}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="0" windowWidth="16350" windowHeight="10815" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="525" yWindow="0" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -515,6 +515,23 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B47D5C-364D-47C1-A471-DEE666165906}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B86BE40-134F-425A-9CE2-753D216B1287}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="0" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -96,13 +96,13 @@
     <t>Distance</t>
   </si>
   <si>
+    <t>100+00</t>
+  </si>
+  <si>
+    <t>200+00</t>
+  </si>
+  <si>
     <t>2C#2</t>
-  </si>
-  <si>
-    <t>100+00</t>
-  </si>
-  <si>
-    <t>200+00</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +512,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,16 +523,135 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -543,15 +662,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5F9924-AA7D-49DB-85CC-CC30A665294A}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G5" sqref="G5:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -638,8 +757,23 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,8 +789,23 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -672,8 +821,23 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -689,8 +853,23 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -707,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -724,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -741,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -758,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -775,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -792,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -809,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B86BE40-134F-425A-9CE2-753D216B1287}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915F58A1-CA65-4700-B447-CFC28F54D3C4}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="0" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="870" yWindow="345" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +520,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -549,108 +549,6 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -665,7 +563,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:K8"/>
+      <selection activeCell="G10" sqref="G10:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +800,21 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -919,6 +832,21 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -936,6 +864,21 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -953,6 +896,21 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -969,6 +927,21 @@
       </c>
       <c r="E14" t="s">
         <v>4</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915F58A1-CA65-4700-B447-CFC28F54D3C4}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E97D97D-6F04-4BC6-B9AA-18DC3B0C324D}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="345" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E97D97D-6F04-4BC6-B9AA-18DC3B0C324D}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE359469-B00F-4DBD-88AB-49E0337CD654}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="345" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,23 +532,6 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE359469-B00F-4DBD-88AB-49E0337CD654}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49683067-FF1D-4828-9D88-C02674899356}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="345" windowWidth="17235" windowHeight="12405" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +532,23 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Test Basic Pull Sheet.xlsx
+++ b/Test Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://judlauent-my.sharepoint.com/personal/roneill_tcelect_net/Documents/Documents 1/Code/Git Files/Cable-Run-Optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49683067-FF1D-4828-9D88-C02674899356}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{D23D06AD-18E3-4183-AC80-8894A5B21212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A7E94B-7F8D-4873-804A-3FAEF4FEC3B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8010" windowHeight="15600" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="22">
   <si>
     <t>Pull #</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A0316-6B2F-4DAF-B941-AD7334AF299B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +549,23 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
